--- a/AE Sakib/P-W-50/Cross Section Agrregation.xlsx
+++ b/AE Sakib/P-W-50/Cross Section Agrregation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7956" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Data_index" sheetId="3" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +449,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +480,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +525,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -529,11 +555,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,10 +567,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8286,6 +8349,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8716,6 +8780,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9152,6 +9217,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9584,6 +9650,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17389,6 +17456,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17819,6 +17887,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18255,6 +18324,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18687,6 +18757,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19113,6 +19184,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -33987,22 +34059,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="38" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="4" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -34021,8 +34093,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -34048,8 +34120,8 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4">
@@ -34075,8 +34147,8 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="4">
@@ -34102,8 +34174,8 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="4">
@@ -34129,8 +34201,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="4">
@@ -34156,8 +34228,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="4">
@@ -34183,8 +34255,8 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="4">
@@ -34210,8 +34282,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="4">
@@ -34237,8 +34309,8 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="4">
@@ -34264,8 +34336,8 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="4">
@@ -34291,8 +34363,8 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="4">
@@ -34318,8 +34390,8 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="4">
@@ -34345,8 +34417,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="4">
@@ -34372,8 +34444,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="4">
@@ -34399,8 +34471,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="4">
@@ -34426,8 +34498,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="4">
@@ -34453,8 +34525,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="4">
@@ -34480,8 +34552,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="4">
@@ -34507,8 +34579,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="4">
@@ -34534,8 +34606,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="4">
@@ -34561,8 +34633,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="4">
@@ -34588,8 +34660,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="4">
@@ -34615,8 +34687,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="4">
@@ -34642,8 +34714,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="4">
@@ -34669,8 +34741,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="4">
@@ -34696,8 +34768,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="4">
@@ -34723,8 +34795,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="4">
@@ -34750,8 +34822,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="4">
@@ -34777,8 +34849,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="4">
@@ -34804,8 +34876,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="4">
@@ -34831,8 +34903,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="4">
@@ -34858,8 +34930,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B33" s="4">
@@ -34885,8 +34957,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>92</v>
       </c>
       <c r="B34" s="4">
@@ -34912,8 +34984,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="4">
@@ -34939,8 +35011,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="4">
@@ -34966,8 +35038,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="4">
@@ -34993,8 +35065,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
         <v>96</v>
       </c>
       <c r="B38" s="4">
@@ -35020,8 +35092,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="4">
@@ -35047,8 +35119,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="4">
@@ -35074,8 +35146,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
         <v>99</v>
       </c>
       <c r="B41" s="4">
@@ -35101,8 +35173,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>100</v>
       </c>
       <c r="B42" s="4">
@@ -35128,8 +35200,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
         <v>101</v>
       </c>
       <c r="B43" s="4">
@@ -35155,8 +35227,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>108</v>
       </c>
       <c r="B44" s="4">
@@ -35182,8 +35254,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
         <v>109</v>
       </c>
       <c r="B45" s="4">
@@ -35209,8 +35281,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
         <v>110</v>
       </c>
       <c r="B46" s="4">
@@ -35236,8 +35308,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
         <v>111</v>
       </c>
       <c r="B47" s="4">
@@ -35263,8 +35335,8 @@
         <v>Not Ok</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
         <v>112</v>
       </c>
       <c r="B48" s="4">
@@ -35286,8 +35358,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
         <v>113</v>
       </c>
       <c r="B49" s="4">
@@ -35315,49 +35387,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE1089"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="X298" sqref="X298"/>
+    <sheetView topLeftCell="A354" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429:C429"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16" width="8.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="1" customWidth="1"/>
-    <col min="18" max="26" width="8.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" style="1" customWidth="1"/>
-    <col min="28" max="41" width="8.88671875" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="53" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16" width="8.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="26" width="8.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="1" customWidth="1"/>
+    <col min="28" max="41" width="8.85546875" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
     </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -35380,32 +35452,32 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -35428,8 +35500,8 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5"/>
@@ -35453,7 +35525,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -35476,7 +35548,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -35499,7 +35571,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -35522,7 +35594,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -35545,7 +35617,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -35568,7 +35640,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -35591,7 +35663,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -35614,7 +35686,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -35637,7 +35709,7 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -35660,7 +35732,7 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -35683,7 +35755,7 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -35706,7 +35778,7 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -35729,7 +35801,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -35752,7 +35824,7 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -35775,7 +35847,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -35798,133 +35870,133 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="25">
         <v>0</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="25">
         <v>4</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="25">
         <v>5.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="25">
         <v>6.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="25">
         <v>8.5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="25">
         <v>10.5</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="25">
         <v>12.5</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="25">
         <v>16.5</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="25">
         <v>18.5</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="25">
         <v>20.5</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="25">
         <v>22.5</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="25">
         <v>24.5</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="25">
         <v>26.5</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="25">
         <v>28.5</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="25">
         <v>30.5</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="25">
         <v>31</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="25">
         <v>34</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="25">
         <v>37</v>
       </c>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="26">
         <v>0.249</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="26">
         <v>0.5279999999999998</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="26">
         <v>2.3279999999999998</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="26">
         <v>1.6519999999999999</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="26">
         <v>1.4139999999999999</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="26">
         <v>0.74399999999999988</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="26">
         <v>0.12399999999999989</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="26">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="26">
         <v>0.19399999999999995</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="26">
         <v>0.16399999999999992</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="26">
         <v>0.17399999999999993</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="26">
         <v>7.3999999999999844E-2</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="26">
         <v>0.22399999999999998</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="26">
         <v>9.3999999999999861E-2</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="26">
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="26">
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="26">
         <v>2.294</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="26">
         <v>2.3239999999999998</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="26">
         <v>2.3340000000000001</v>
       </c>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -35949,7 +36021,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -35972,7 +36044,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
@@ -35997,7 +36069,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -36020,7 +36092,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -36043,7 +36115,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -36066,7 +36138,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -36089,7 +36161,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -36112,7 +36184,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -36135,7 +36207,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -36158,7 +36230,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -36181,7 +36253,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -36204,7 +36276,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -36227,7 +36299,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -36250,7 +36322,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -36273,7 +36345,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -36296,7 +36368,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -36319,7 +36391,7 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -36342,7 +36414,7 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -36365,7 +36437,7 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -36388,7 +36460,7 @@
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>0</v>
       </c>
@@ -36453,7 +36525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>1</v>
       </c>
@@ -36518,7 +36590,7 @@
         <v>0.58199999999999985</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -36543,7 +36615,7 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -36566,7 +36638,7 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>20</v>
       </c>
@@ -36591,7 +36663,7 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -36614,7 +36686,7 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -36637,7 +36709,7 @@
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -36660,7 +36732,7 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -36683,7 +36755,7 @@
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -36706,7 +36778,7 @@
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -36729,7 +36801,7 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -36752,7 +36824,7 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -36775,7 +36847,7 @@
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -36798,7 +36870,7 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -36821,7 +36893,7 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -36844,7 +36916,7 @@
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -36867,7 +36939,7 @@
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -36890,7 +36962,7 @@
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -36913,7 +36985,7 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -36936,7 +37008,7 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -36959,7 +37031,7 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -36982,7 +37054,7 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
     </row>
-    <row r="65" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>0</v>
       </c>
@@ -37041,7 +37113,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>1</v>
       </c>
@@ -37100,7 +37172,7 @@
       <c r="T66" s="11"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -37125,7 +37197,7 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -37148,7 +37220,7 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>21</v>
       </c>
@@ -37173,7 +37245,7 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
     </row>
-    <row r="70" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -37196,7 +37268,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
     </row>
-    <row r="71" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -37219,7 +37291,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
     </row>
-    <row r="72" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -37242,7 +37314,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
     </row>
-    <row r="73" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -37265,7 +37337,7 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
     </row>
-    <row r="74" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -37288,7 +37360,7 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
     </row>
-    <row r="75" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -37311,7 +37383,7 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
     </row>
-    <row r="76" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -37334,7 +37406,7 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -37357,7 +37429,7 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
     </row>
-    <row r="78" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -37380,7 +37452,7 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
     </row>
-    <row r="79" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -37403,7 +37475,7 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
     </row>
-    <row r="80" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -37426,7 +37498,7 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
     </row>
-    <row r="81" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -37449,7 +37521,7 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
     </row>
-    <row r="82" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -37472,7 +37544,7 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
     </row>
-    <row r="83" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -37495,7 +37567,7 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
     </row>
-    <row r="84" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -37518,7 +37590,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
     </row>
-    <row r="85" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -37541,7 +37613,7 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
     </row>
-    <row r="86" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>0</v>
       </c>
@@ -37606,7 +37678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>1</v>
       </c>
@@ -37671,7 +37743,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -37696,7 +37768,7 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
     </row>
-    <row r="89" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -37719,12 +37791,12 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
     </row>
-    <row r="90" spans="1:21" ht="21" x14ac:dyDescent="0.4">
-      <c r="A90" s="19" t="s">
+    <row r="90" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -37744,7 +37816,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
     </row>
-    <row r="91" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -37767,7 +37839,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -37790,7 +37862,7 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -37813,7 +37885,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
     </row>
-    <row r="94" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -37836,7 +37908,7 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
     </row>
-    <row r="95" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -37859,7 +37931,7 @@
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
     </row>
-    <row r="96" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -37882,7 +37954,7 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
     </row>
-    <row r="97" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -37905,7 +37977,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -37928,7 +38000,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -37951,7 +38023,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -37974,7 +38046,7 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
     </row>
-    <row r="101" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -37997,7 +38069,7 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -38020,7 +38092,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
     </row>
-    <row r="103" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -38043,7 +38115,7 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -38066,7 +38138,7 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
     </row>
-    <row r="105" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -38089,7 +38161,7 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
     </row>
-    <row r="106" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -38112,7 +38184,7 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
     </row>
-    <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -38135,7 +38207,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
     </row>
-    <row r="108" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -38158,7 +38230,7 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>0</v>
       </c>
@@ -38221,7 +38293,7 @@
       </c>
       <c r="U109" s="8"/>
     </row>
-    <row r="110" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>1</v>
       </c>
@@ -38284,7 +38356,7 @@
       </c>
       <c r="U110" s="10"/>
     </row>
-    <row r="111" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -38309,7 +38381,7 @@
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
     </row>
-    <row r="112" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -38332,7 +38404,7 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
     </row>
-    <row r="113" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>23</v>
       </c>
@@ -38357,7 +38429,7 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
     </row>
-    <row r="114" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -38380,7 +38452,7 @@
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
     </row>
-    <row r="115" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -38403,7 +38475,7 @@
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
     </row>
-    <row r="116" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -38426,7 +38498,7 @@
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
     </row>
-    <row r="117" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -38449,7 +38521,7 @@
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
     </row>
-    <row r="118" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -38472,7 +38544,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
     </row>
-    <row r="119" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -38495,7 +38567,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
     </row>
-    <row r="120" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -38518,7 +38590,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
     </row>
-    <row r="121" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -38541,7 +38613,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
     </row>
-    <row r="122" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -38564,7 +38636,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
     </row>
-    <row r="123" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -38587,7 +38659,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
     </row>
-    <row r="124" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -38610,7 +38682,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
     </row>
-    <row r="125" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -38633,7 +38705,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
     </row>
-    <row r="126" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -38656,7 +38728,7 @@
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
     </row>
-    <row r="127" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -38679,7 +38751,7 @@
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
     </row>
-    <row r="128" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -38702,7 +38774,7 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
     </row>
-    <row r="129" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -38725,7 +38797,7 @@
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
     </row>
-    <row r="130" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -38748,7 +38820,7 @@
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
     </row>
-    <row r="131" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -38771,7 +38843,7 @@
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
     </row>
-    <row r="132" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>0</v>
       </c>
@@ -38830,7 +38902,7 @@
       <c r="T132" s="9"/>
       <c r="U132" s="8"/>
     </row>
-    <row r="133" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>1</v>
       </c>
@@ -38889,7 +38961,7 @@
       <c r="T133" s="11"/>
       <c r="U133" s="10"/>
     </row>
-    <row r="134" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -38914,7 +38986,7 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
     </row>
-    <row r="135" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -38937,32 +39009,32 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
     </row>
-    <row r="137" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="23" t="s">
+    <row r="137" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="23"/>
-      <c r="M137" s="23"/>
-      <c r="N137" s="23"/>
-      <c r="O137" s="23"/>
-      <c r="P137" s="23"/>
-      <c r="Q137" s="23"/>
-      <c r="R137" s="23"/>
-      <c r="S137" s="23"/>
-      <c r="T137" s="23"/>
-      <c r="U137" s="23"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
+      <c r="N137" s="30"/>
+      <c r="O137" s="30"/>
+      <c r="P137" s="30"/>
+      <c r="Q137" s="30"/>
+      <c r="R137" s="30"/>
+      <c r="S137" s="30"/>
+      <c r="T137" s="30"/>
+      <c r="U137" s="30"/>
     </row>
-    <row r="138" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -38985,32 +39057,32 @@
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
     </row>
-    <row r="139" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="6"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="20" t="s">
+      <c r="F139" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="20"/>
-      <c r="N139" s="20"/>
-      <c r="O139" s="20"/>
-      <c r="P139" s="20"/>
-      <c r="Q139" s="20"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="34"/>
+      <c r="L139" s="34"/>
+      <c r="M139" s="34"/>
+      <c r="N139" s="34"/>
+      <c r="O139" s="34"/>
+      <c r="P139" s="34"/>
+      <c r="Q139" s="34"/>
       <c r="R139" s="5"/>
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
     </row>
-    <row r="140" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -39033,8 +39105,8 @@
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
     </row>
-    <row r="141" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A141" s="7" t="s">
+    <row r="141" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A141" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B141" s="5"/>
@@ -39058,7 +39130,7 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
     </row>
-    <row r="142" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -39081,7 +39153,7 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -39104,7 +39176,7 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
     </row>
-    <row r="144" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -39127,7 +39199,7 @@
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
     </row>
-    <row r="145" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -39150,7 +39222,7 @@
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
     </row>
-    <row r="146" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -39173,7 +39245,7 @@
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
     </row>
-    <row r="147" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -39196,7 +39268,7 @@
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
     </row>
-    <row r="148" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -39219,7 +39291,7 @@
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
     </row>
-    <row r="149" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -39242,7 +39314,7 @@
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
     </row>
-    <row r="150" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -39265,7 +39337,7 @@
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
     </row>
-    <row r="151" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -39288,7 +39360,7 @@
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
     </row>
-    <row r="152" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -39311,7 +39383,7 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
     </row>
-    <row r="153" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -39334,7 +39406,7 @@
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
     </row>
-    <row r="154" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -39357,7 +39429,7 @@
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
     </row>
-    <row r="155" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -39380,7 +39452,7 @@
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
     </row>
-    <row r="156" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -39403,137 +39475,137 @@
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
     </row>
-    <row r="157" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A157" s="8" t="s">
+    <row r="157" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A157" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" s="31">
         <v>0</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="31">
         <v>3</v>
       </c>
-      <c r="D157" s="9">
+      <c r="D157" s="31">
         <v>6</v>
       </c>
-      <c r="E157" s="9">
+      <c r="E157" s="31">
         <v>7</v>
       </c>
-      <c r="F157" s="9">
+      <c r="F157" s="31">
         <v>7.5</v>
       </c>
-      <c r="G157" s="9">
+      <c r="G157" s="31">
         <v>8</v>
       </c>
-      <c r="H157" s="9">
+      <c r="H157" s="31">
         <v>10</v>
       </c>
-      <c r="I157" s="9">
+      <c r="I157" s="31">
         <v>11</v>
       </c>
-      <c r="J157" s="9">
+      <c r="J157" s="31">
         <v>13</v>
       </c>
-      <c r="K157" s="9">
+      <c r="K157" s="31">
         <v>14</v>
       </c>
-      <c r="L157" s="9">
+      <c r="L157" s="31">
         <v>16</v>
       </c>
-      <c r="M157" s="9">
+      <c r="M157" s="31">
         <v>18</v>
       </c>
-      <c r="N157" s="9">
+      <c r="N157" s="31">
         <v>19</v>
       </c>
-      <c r="O157" s="9">
+      <c r="O157" s="31">
         <v>19.5</v>
       </c>
-      <c r="P157" s="9">
+      <c r="P157" s="31">
         <v>21</v>
       </c>
-      <c r="Q157" s="9">
+      <c r="Q157" s="31">
         <v>23</v>
       </c>
-      <c r="R157" s="9">
+      <c r="R157" s="31">
         <v>25</v>
       </c>
-      <c r="S157" s="9">
+      <c r="S157" s="31">
         <v>27</v>
       </c>
-      <c r="T157" s="9">
+      <c r="T157" s="31">
         <v>30</v>
       </c>
-      <c r="U157" s="9">
+      <c r="U157" s="31">
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A158" s="10" t="s">
+    <row r="158" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A158" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="11">
+      <c r="B158" s="32">
         <v>0.69000000000000017</v>
       </c>
-      <c r="C158" s="11">
+      <c r="C158" s="32">
         <v>0.11000000000000032</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="32">
         <v>0.8600000000000001</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="32">
         <v>0.82000000000000006</v>
       </c>
-      <c r="F158" s="11">
+      <c r="F158" s="32">
         <v>2.4099999999999997</v>
       </c>
-      <c r="G158" s="11">
+      <c r="G158" s="32">
         <v>2.7459999999999996</v>
       </c>
-      <c r="H158" s="11">
+      <c r="H158" s="32">
         <v>2.6959999999999997</v>
       </c>
-      <c r="I158" s="11">
+      <c r="I158" s="32">
         <v>1.286</v>
       </c>
-      <c r="J158" s="11">
+      <c r="J158" s="32">
         <v>0.89600000000000013</v>
       </c>
-      <c r="K158" s="11">
+      <c r="K158" s="32">
         <v>0.70600000000000018</v>
       </c>
-      <c r="L158" s="11">
+      <c r="L158" s="32">
         <v>0.79600000000000004</v>
       </c>
-      <c r="M158" s="11">
+      <c r="M158" s="32">
         <v>1.4460000000000002</v>
       </c>
-      <c r="N158" s="11">
+      <c r="N158" s="32">
         <v>2.4059999999999997</v>
       </c>
-      <c r="O158" s="11">
+      <c r="O158" s="32">
         <v>2.3059999999999996</v>
       </c>
-      <c r="P158" s="11">
+      <c r="P158" s="32">
         <v>1.766</v>
       </c>
-      <c r="Q158" s="11">
+      <c r="Q158" s="32">
         <v>0.38600000000000012</v>
       </c>
-      <c r="R158" s="11">
+      <c r="R158" s="32">
         <v>0.44600000000000017</v>
       </c>
-      <c r="S158" s="11">
+      <c r="S158" s="32">
         <v>0.93600000000000017</v>
       </c>
-      <c r="T158" s="11">
+      <c r="T158" s="32">
         <v>0.93600000000000017</v>
       </c>
-      <c r="U158" s="11">
+      <c r="U158" s="32">
         <v>0.94600000000000017</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -39558,7 +39630,7 @@
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
     </row>
-    <row r="160" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -39581,12 +39653,12 @@
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
     </row>
-    <row r="161" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A161" s="18" t="s">
+    <row r="161" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A161" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -39606,7 +39678,7 @@
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
     </row>
-    <row r="162" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -39629,7 +39701,7 @@
       <c r="T162" s="5"/>
       <c r="U162" s="5"/>
     </row>
-    <row r="163" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -39652,7 +39724,7 @@
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
     </row>
-    <row r="164" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -39675,7 +39747,7 @@
       <c r="T164" s="5"/>
       <c r="U164" s="5"/>
     </row>
-    <row r="165" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -39698,7 +39770,7 @@
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
     </row>
-    <row r="166" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -39721,7 +39793,7 @@
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
     </row>
-    <row r="167" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -39744,7 +39816,7 @@
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
     </row>
-    <row r="168" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -39767,7 +39839,7 @@
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
     </row>
-    <row r="169" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -39790,7 +39862,7 @@
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
     </row>
-    <row r="170" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -39813,7 +39885,7 @@
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -39836,7 +39908,7 @@
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
     </row>
-    <row r="172" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -39859,7 +39931,7 @@
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
     </row>
-    <row r="173" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -39882,7 +39954,7 @@
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
     </row>
-    <row r="174" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -39905,7 +39977,7 @@
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
     </row>
-    <row r="175" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -39928,7 +40000,7 @@
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
     </row>
-    <row r="176" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -39951,7 +40023,7 @@
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
     </row>
-    <row r="177" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -39974,7 +40046,7 @@
       <c r="T177" s="5"/>
       <c r="U177" s="5"/>
     </row>
-    <row r="178" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -39997,8 +40069,8 @@
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
     </row>
-    <row r="179" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A179" s="8" t="s">
+    <row r="179" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A179" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B179" s="9">
@@ -40062,8 +40134,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A180" s="10" t="s">
+    <row r="180" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A180" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B180" s="11">
@@ -40127,7 +40199,7 @@
         <v>0.81600000000000006</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -40152,7 +40224,7 @@
       <c r="T181" s="5"/>
       <c r="U181" s="5"/>
     </row>
-    <row r="182" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -40175,7 +40247,7 @@
       <c r="T182" s="5"/>
       <c r="U182" s="5"/>
     </row>
-    <row r="183" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>32</v>
       </c>
@@ -40200,7 +40272,7 @@
       <c r="T183" s="5"/>
       <c r="U183" s="5"/>
     </row>
-    <row r="184" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -40223,7 +40295,7 @@
       <c r="T184" s="5"/>
       <c r="U184" s="5"/>
     </row>
-    <row r="185" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -40246,7 +40318,7 @@
       <c r="T185" s="5"/>
       <c r="U185" s="5"/>
     </row>
-    <row r="186" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -40269,7 +40341,7 @@
       <c r="T186" s="5"/>
       <c r="U186" s="5"/>
     </row>
-    <row r="187" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -40292,7 +40364,7 @@
       <c r="T187" s="5"/>
       <c r="U187" s="5"/>
     </row>
-    <row r="188" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -40315,7 +40387,7 @@
       <c r="T188" s="5"/>
       <c r="U188" s="5"/>
     </row>
-    <row r="189" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -40338,7 +40410,7 @@
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
     </row>
-    <row r="190" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -40361,7 +40433,7 @@
       <c r="T190" s="5"/>
       <c r="U190" s="5"/>
     </row>
-    <row r="191" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -40384,7 +40456,7 @@
       <c r="T191" s="5"/>
       <c r="U191" s="5"/>
     </row>
-    <row r="192" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -40407,7 +40479,7 @@
       <c r="T192" s="5"/>
       <c r="U192" s="5"/>
     </row>
-    <row r="193" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -40430,7 +40502,7 @@
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
     </row>
-    <row r="194" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -40453,7 +40525,7 @@
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
     </row>
-    <row r="195" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -40476,7 +40548,7 @@
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
     </row>
-    <row r="196" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -40499,7 +40571,7 @@
       <c r="T196" s="5"/>
       <c r="U196" s="5"/>
     </row>
-    <row r="197" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -40522,7 +40594,7 @@
       <c r="T197" s="5"/>
       <c r="U197" s="5"/>
     </row>
-    <row r="198" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -40545,7 +40617,7 @@
       <c r="T198" s="5"/>
       <c r="U198" s="5"/>
     </row>
-    <row r="199" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -40568,7 +40640,7 @@
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
     </row>
-    <row r="200" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -40591,7 +40663,7 @@
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
     </row>
-    <row r="201" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
         <v>0</v>
       </c>
@@ -40653,7 +40725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
         <v>1</v>
       </c>
@@ -40715,7 +40787,7 @@
         <v>2.1580000000000004</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -40740,7 +40812,7 @@
       <c r="T203" s="5"/>
       <c r="U203" s="5"/>
     </row>
-    <row r="204" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -40763,7 +40835,7 @@
       <c r="T204" s="5"/>
       <c r="U204" s="5"/>
     </row>
-    <row r="205" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>33</v>
       </c>
@@ -40788,7 +40860,7 @@
       <c r="T205" s="5"/>
       <c r="U205" s="5"/>
     </row>
-    <row r="206" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -40811,7 +40883,7 @@
       <c r="T206" s="5"/>
       <c r="U206" s="5"/>
     </row>
-    <row r="207" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -40834,7 +40906,7 @@
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
     </row>
-    <row r="208" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -40857,7 +40929,7 @@
       <c r="T208" s="5"/>
       <c r="U208" s="5"/>
     </row>
-    <row r="209" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -40880,7 +40952,7 @@
       <c r="T209" s="5"/>
       <c r="U209" s="5"/>
     </row>
-    <row r="210" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -40903,7 +40975,7 @@
       <c r="T210" s="5"/>
       <c r="U210" s="5"/>
     </row>
-    <row r="211" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -40926,7 +40998,7 @@
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
     </row>
-    <row r="212" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -40949,7 +41021,7 @@
       <c r="T212" s="5"/>
       <c r="U212" s="5"/>
     </row>
-    <row r="213" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -40972,7 +41044,7 @@
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
     </row>
-    <row r="214" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -40995,7 +41067,7 @@
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
     </row>
-    <row r="215" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -41018,7 +41090,7 @@
       <c r="T215" s="5"/>
       <c r="U215" s="5"/>
     </row>
-    <row r="216" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -41041,7 +41113,7 @@
       <c r="T216" s="5"/>
       <c r="U216" s="5"/>
     </row>
-    <row r="217" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -41064,7 +41136,7 @@
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
     </row>
-    <row r="218" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -41087,7 +41159,7 @@
       <c r="T218" s="5"/>
       <c r="U218" s="5"/>
     </row>
-    <row r="219" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -41110,7 +41182,7 @@
       <c r="T219" s="5"/>
       <c r="U219" s="5"/>
     </row>
-    <row r="220" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -41133,7 +41205,7 @@
       <c r="T220" s="5"/>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -41156,7 +41228,7 @@
       <c r="T221" s="5"/>
       <c r="U221" s="5"/>
     </row>
-    <row r="222" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
         <v>0</v>
       </c>
@@ -41209,7 +41281,7 @@
       <c r="T222" s="9"/>
       <c r="U222" s="9"/>
     </row>
-    <row r="223" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A223" s="10" t="s">
         <v>1</v>
       </c>
@@ -41262,7 +41334,7 @@
       <c r="T223" s="11"/>
       <c r="U223" s="11"/>
     </row>
-    <row r="224" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -41287,7 +41359,7 @@
       <c r="T224" s="5"/>
       <c r="U224" s="5"/>
     </row>
-    <row r="225" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -41310,48 +41382,48 @@
       <c r="T225" s="5"/>
       <c r="U225" s="5"/>
     </row>
-    <row r="226" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="227" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D227" s="6"/>
-      <c r="F227" s="20" t="s">
+      <c r="F227" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G227" s="20"/>
-      <c r="H227" s="20"/>
-      <c r="I227" s="20"/>
-      <c r="J227" s="20"/>
-      <c r="K227" s="20"/>
-      <c r="L227" s="20"/>
-      <c r="M227" s="20"/>
-      <c r="N227" s="20"/>
-      <c r="O227" s="20"/>
-      <c r="P227" s="20"/>
-      <c r="Q227" s="20"/>
+      <c r="G227" s="28"/>
+      <c r="H227" s="28"/>
+      <c r="I227" s="28"/>
+      <c r="J227" s="28"/>
+      <c r="K227" s="28"/>
+      <c r="L227" s="28"/>
+      <c r="M227" s="28"/>
+      <c r="N227" s="28"/>
+      <c r="O227" s="28"/>
+      <c r="P227" s="28"/>
+      <c r="Q227" s="28"/>
     </row>
-    <row r="228" spans="1:21" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" spans="1:21" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:21" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:21" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
     </row>
-    <row r="230" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="231" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="232" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="233" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="234" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="235" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="236" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="237" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="238" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="239" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="240" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="241" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="242" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="243" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="244" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" spans="1:21" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="231" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="236" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="241" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="242" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="243" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="244" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" spans="1:21" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
         <v>0</v>
       </c>
@@ -41416,7 +41488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="246" spans="1:21" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:21" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A246" s="10" t="s">
         <v>1</v>
       </c>
@@ -41481,37 +41553,37 @@
         <v>8.2000000000000073E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K247" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="249" spans="1:21" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="249" spans="1:21" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A249" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
     </row>
-    <row r="250" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="251" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="252" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="253" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="254" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="255" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="256" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="257" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="258" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="259" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="260" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="261" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="262" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="263" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="264" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="265" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="266" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="267" spans="1:21" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="251" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="252" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="254" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="255" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="257" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="258" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="259" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="260" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="261" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="263" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="264" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="265" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="266" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="267" spans="1:21" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
         <v>0</v>
       </c>
@@ -41576,7 +41648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:21" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:21" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A268" s="10" t="s">
         <v>1</v>
       </c>
@@ -41641,37 +41713,37 @@
         <v>-0.11799999999999988</v>
       </c>
     </row>
-    <row r="269" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L269" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="271" spans="1:21" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="1:21" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A271" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
     </row>
-    <row r="272" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="273" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="274" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="275" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="276" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="277" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="278" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="279" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="280" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="281" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="282" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="283" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="284" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="285" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="286" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="287" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="288" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="289" spans="1:22" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="273" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="274" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="275" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="276" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="277" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="278" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="279" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="280" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="281" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="282" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="283" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="284" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="285" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="286" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="287" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="288" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="1:22" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A289" s="8" t="s">
         <v>0</v>
       </c>
@@ -41739,7 +41811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="290" spans="1:22" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:22" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A290" s="10" t="s">
         <v>1</v>
       </c>
@@ -41807,36 +41879,36 @@
         <v>0.16199999999999992</v>
       </c>
     </row>
-    <row r="291" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L291" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="293" spans="1:22" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="293" spans="1:22" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A293" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
     </row>
-    <row r="294" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="295" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="296" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="297" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="298" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="299" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="300" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="301" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="302" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="303" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="304" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="305" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="306" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="307" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="308" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="309" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="310" spans="1:34" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="295" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="296" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="297" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="298" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="299" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="300" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="301" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="302" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="303" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="304" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="305" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="306" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="307" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="308" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="309" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="310" spans="1:34" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A310" s="8" t="s">
         <v>0</v>
       </c>
@@ -41905,7 +41977,7 @@
       </c>
       <c r="AH310" s="9"/>
     </row>
-    <row r="311" spans="1:34" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:34" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A311" s="10" t="s">
         <v>1</v>
       </c>
@@ -41974,33 +42046,33 @@
       </c>
       <c r="AH311" s="11"/>
     </row>
-    <row r="312" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="313" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="314" spans="1:34" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A314" s="19" t="s">
+    <row r="312" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="313" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="314" spans="1:34" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A314" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B314" s="19"/>
+      <c r="B314" s="20"/>
     </row>
-    <row r="315" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="316" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="317" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="318" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="319" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="320" spans="1:34" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="321" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="322" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="323" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="324" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="325" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="326" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="327" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="328" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="329" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="330" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="331" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="332" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="333" spans="1:57" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="317" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="318" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="319" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="320" spans="1:34" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="321" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="322" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="323" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="324" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="325" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="326" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="327" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="328" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="329" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="330" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="331" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="332" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="333" spans="1:57" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A333" s="8" t="s">
         <v>0</v>
       </c>
@@ -42071,7 +42143,7 @@
         <v>1.1649999999999991</v>
       </c>
     </row>
-    <row r="334" spans="1:57" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:57" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A334" s="10" t="s">
         <v>1</v>
       </c>
@@ -42142,7 +42214,7 @@
         <v>0.61499999999999932</v>
       </c>
     </row>
-    <row r="335" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L335" s="5" t="s">
         <v>2</v>
       </c>
@@ -42153,7 +42225,7 @@
         <v>7.4999999999999289E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD336" s="5">
         <v>13</v>
       </c>
@@ -42161,7 +42233,7 @@
         <v>2.1249999999999991</v>
       </c>
     </row>
-    <row r="337" spans="1:57" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:57" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A337" s="18" t="s">
         <v>43</v>
       </c>
@@ -42174,7 +42246,7 @@
         <v>2.1449999999999996</v>
       </c>
     </row>
-    <row r="338" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD338" s="5">
         <v>16</v>
       </c>
@@ -42182,7 +42254,7 @@
         <v>1.4849999999999994</v>
       </c>
     </row>
-    <row r="339" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD339" s="5">
         <v>20</v>
       </c>
@@ -42190,7 +42262,7 @@
         <v>0.16199999999999926</v>
       </c>
     </row>
-    <row r="340" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD340" s="5">
         <v>23</v>
       </c>
@@ -42198,7 +42270,7 @@
         <v>-2.8000000000000691E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD341" s="5">
         <v>27</v>
       </c>
@@ -42206,14 +42278,14 @@
         <v>-0.15800000000000081</v>
       </c>
     </row>
-    <row r="342" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="343" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="344" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="345" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="346" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="347" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="348" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="349" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="343" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="344" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="345" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="346" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="347" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="348" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="349" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD349" s="5">
         <v>31</v>
       </c>
@@ -42221,7 +42293,7 @@
         <v>-0.47800000000000065</v>
       </c>
     </row>
-    <row r="350" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD350" s="5">
         <v>35</v>
       </c>
@@ -42229,7 +42301,7 @@
         <v>-0.5680000000000005</v>
       </c>
     </row>
-    <row r="351" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD351" s="5">
         <v>39</v>
       </c>
@@ -42237,7 +42309,7 @@
         <v>-0.68800000000000061</v>
       </c>
     </row>
-    <row r="352" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD352" s="5">
         <v>42</v>
       </c>
@@ -42245,7 +42317,7 @@
         <v>-0.70800000000000063</v>
       </c>
     </row>
-    <row r="353" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD353" s="5">
         <v>46</v>
       </c>
@@ -42253,7 +42325,7 @@
         <v>-0.57800000000000074</v>
       </c>
     </row>
-    <row r="354" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD354" s="5">
         <v>49</v>
       </c>
@@ -42261,7 +42333,7 @@
         <v>-0.37800000000000056</v>
       </c>
     </row>
-    <row r="355" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD355" s="5">
         <v>52</v>
       </c>
@@ -42269,7 +42341,7 @@
         <v>0.24199999999999933</v>
       </c>
     </row>
-    <row r="356" spans="1:57" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:57" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A356" s="8" t="s">
         <v>0</v>
       </c>
@@ -42340,7 +42412,7 @@
         <v>0.8419999999999993</v>
       </c>
     </row>
-    <row r="357" spans="1:57" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:57" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A357" s="10" t="s">
         <v>1</v>
       </c>
@@ -42411,7 +42483,7 @@
         <v>1.7149999999999994</v>
       </c>
     </row>
-    <row r="358" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M358" s="5" t="s">
         <v>2</v>
       </c>
@@ -42422,7 +42494,7 @@
         <v>2.5249999999999995</v>
       </c>
     </row>
-    <row r="359" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD359" s="5">
         <v>65</v>
       </c>
@@ -42430,32 +42502,32 @@
         <v>2.5349999999999993</v>
       </c>
     </row>
-    <row r="360" spans="1:57" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:57" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A360" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
     </row>
-    <row r="361" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="362" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="363" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="364" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="365" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="366" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="367" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="368" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="369" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="370" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="371" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="372" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="373" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="374" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="375" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="376" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="377" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="378" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="379" spans="1:22" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="362" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="363" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="364" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="365" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="366" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="367" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="368" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="369" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="370" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="371" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="372" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="373" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="374" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="375" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="376" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="377" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="378" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="379" spans="1:22" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
         <v>0</v>
       </c>
@@ -42523,7 +42595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:22" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:22" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A380" s="10" t="s">
         <v>1</v>
       </c>
@@ -42591,39 +42663,39 @@
         <v>6.2000000000000055E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M381" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="383" spans="1:22" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="383" spans="1:22" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A383" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B383" s="18"/>
       <c r="C383" s="18"/>
     </row>
-    <row r="384" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="385" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="386" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="387" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="388" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="389" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="390" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="391" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="392" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="393" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="394" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="395" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="396" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="397" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="398" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="399" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="400" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="401" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="402" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="403" spans="1:21" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="385" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="386" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="387" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="388" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="389" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="390" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="391" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="392" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="393" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="394" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="395" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="396" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="397" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="398" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="399" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="400" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="401" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="402" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="403" spans="1:21" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A403" s="8" t="s">
         <v>0</v>
       </c>
@@ -42688,7 +42760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="404" spans="1:21" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:21" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A404" s="10" t="s">
         <v>1</v>
       </c>
@@ -42753,38 +42825,38 @@
         <v>-0.16799999999999993</v>
       </c>
     </row>
-    <row r="405" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="N405" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:21" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A406" s="19" t="s">
+    <row r="406" spans="1:21" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A406" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B406" s="19"/>
-      <c r="C406" s="19"/>
+      <c r="B406" s="20"/>
+      <c r="C406" s="20"/>
     </row>
-    <row r="407" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="408" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="409" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="410" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="411" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="412" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="413" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="414" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="415" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="416" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="417" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="418" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="419" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="420" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="421" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="422" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="423" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="424" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="425" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="426" spans="1:19" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="408" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="409" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="410" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="411" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="412" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="413" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="414" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="415" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="416" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="417" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="418" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="419" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="420" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="421" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="422" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="423" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="424" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="425" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="426" spans="1:19" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A426" s="8" t="s">
         <v>0</v>
       </c>
@@ -42843,7 +42915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="427" spans="1:19" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:19" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A427" s="10" t="s">
         <v>1</v>
       </c>
@@ -42902,36 +42974,36 @@
         <v>0.29099999999999993</v>
       </c>
     </row>
-    <row r="428" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K428" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:19" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A429" s="19" t="s">
+    <row r="429" spans="1:19" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A429" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B429" s="19"/>
-      <c r="C429" s="19"/>
+      <c r="B429" s="39"/>
+      <c r="C429" s="39"/>
     </row>
-    <row r="430" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="431" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="432" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="433" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="434" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="435" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="436" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="437" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="438" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="439" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="440" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="441" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="442" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="443" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="444" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="445" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="446" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="447" spans="1:19" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="431" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="432" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="433" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="434" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="435" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="436" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="437" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="438" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="439" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="440" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="441" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="442" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="443" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="444" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="445" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="446" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="447" spans="1:19" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A447" s="8" t="s">
         <v>0</v>
       </c>
@@ -42990,7 +43062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="448" spans="1:19" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:19" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A448" s="10" t="s">
         <v>1</v>
       </c>
@@ -43049,39 +43121,39 @@
         <v>-6.800000000000006E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L449" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:12" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A450" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B450" s="21"/>
       <c r="C450" s="21"/>
     </row>
-    <row r="451" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="452" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="453" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="454" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="455" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="456" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="457" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="458" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="459" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="460" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="461" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="462" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="463" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="464" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="465" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="466" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="467" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="468" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="469" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="470" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="471" spans="1:21" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="452" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="453" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="454" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="455" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="456" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="457" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="458" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="459" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="460" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="461" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="462" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="463" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="464" spans="1:12" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="465" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="466" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="467" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="468" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="469" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="470" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="471" spans="1:21" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
         <v>0</v>
       </c>
@@ -43146,7 +43218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="472" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>1</v>
       </c>
@@ -43211,40 +43283,40 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="473" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L473" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="475" spans="1:21" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="475" spans="1:21" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A475" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B475" s="22"/>
     </row>
-    <row r="476" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="477" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="478" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="479" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="480" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="481" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="482" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="483" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="484" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="485" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="486" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="487" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="488" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="489" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="490" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="491" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="492" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="493" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="494" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="495" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="496" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="497" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="477" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="478" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="479" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="480" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="481" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="482" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="483" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="484" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="485" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="486" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="487" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="488" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="489" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="490" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="491" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="492" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="493" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="494" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="495" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="496" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="497" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
         <v>0</v>
       </c>
@@ -43311,7 +43383,7 @@
       <c r="W497" s="9"/>
       <c r="Y497" s="9"/>
     </row>
-    <row r="498" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A498" s="5" t="s">
         <v>1</v>
       </c>
@@ -43378,7 +43450,7 @@
       <c r="W498" s="11"/>
       <c r="Y498" s="11"/>
     </row>
-    <row r="499" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B499" s="13"/>
       <c r="C499" s="13"/>
       <c r="D499" s="13"/>
@@ -43404,35 +43476,35 @@
       <c r="V499" s="13"/>
       <c r="W499" s="13"/>
     </row>
-    <row r="500" spans="1:25" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A500" s="24" t="s">
+    <row r="500" spans="1:25" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A500" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B500" s="24"/>
-      <c r="C500" s="24"/>
+      <c r="B500" s="19"/>
+      <c r="C500" s="19"/>
       <c r="D500" s="14"/>
     </row>
-    <row r="501" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="502" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="503" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="504" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="505" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="506" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="507" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="508" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="509" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="510" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="511" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="512" spans="1:25" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="513" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="514" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="515" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="516" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="517" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="518" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="519" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="520" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="521" spans="1:22" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="502" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="503" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="504" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="505" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="506" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="507" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="508" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="509" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="510" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="511" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="512" spans="1:25" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="513" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="514" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="515" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="516" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="517" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="518" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="519" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="520" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="521" spans="1:22" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A521" s="15" t="s">
         <v>0</v>
       </c>
@@ -43500,7 +43572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="522" spans="1:22" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:22" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A522" s="16" t="s">
         <v>1</v>
       </c>
@@ -43568,54 +43640,54 @@
         <v>1.944</v>
       </c>
     </row>
-    <row r="523" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L523" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="525" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="526" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="525" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="526" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D526" s="6"/>
-      <c r="F526" s="20" t="s">
+      <c r="F526" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G526" s="20"/>
-      <c r="H526" s="20"/>
-      <c r="I526" s="20"/>
-      <c r="J526" s="20"/>
-      <c r="K526" s="20"/>
-      <c r="L526" s="20"/>
-      <c r="M526" s="20"/>
-      <c r="N526" s="20"/>
-      <c r="O526" s="20"/>
-      <c r="P526" s="20"/>
-      <c r="Q526" s="20"/>
+      <c r="G526" s="28"/>
+      <c r="H526" s="28"/>
+      <c r="I526" s="28"/>
+      <c r="J526" s="28"/>
+      <c r="K526" s="28"/>
+      <c r="L526" s="28"/>
+      <c r="M526" s="28"/>
+      <c r="N526" s="28"/>
+      <c r="O526" s="28"/>
+      <c r="P526" s="28"/>
+      <c r="Q526" s="28"/>
     </row>
-    <row r="527" spans="1:22" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:22" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q527" s="12"/>
     </row>
-    <row r="528" spans="1:22" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:22" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A528" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="530" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="531" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="532" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="533" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="534" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="535" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="536" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="537" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="538" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="539" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="540" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="541" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="542" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="543" spans="1:19" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" spans="1:19" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="530" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="531" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="532" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="533" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="534" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="535" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="536" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="537" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="538" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="539" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="540" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="541" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="542" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="543" spans="1:19" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" spans="1:19" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A544" s="8" t="s">
         <v>0</v>
       </c>
@@ -43674,7 +43746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="545" spans="1:19" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:19" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A545" s="10" t="s">
         <v>1</v>
       </c>
@@ -43733,37 +43805,37 @@
         <v>0.17600000000000016</v>
       </c>
     </row>
-    <row r="546" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K546" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="548" spans="1:19" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="548" spans="1:19" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A548" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B548" s="18"/>
       <c r="C548" s="18"/>
     </row>
-    <row r="549" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="550" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="551" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="552" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="553" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="554" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="555" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="556" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="557" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="558" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="559" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="560" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="561" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="562" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="563" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="564" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="565" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="566" spans="1:19" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="550" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="551" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="552" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="553" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="554" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="555" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="556" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="557" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="558" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="559" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="560" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="561" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="562" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="563" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="564" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="565" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="566" spans="1:19" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A566" s="8" t="s">
         <v>0</v>
       </c>
@@ -43822,7 +43894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="567" spans="1:19" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:19" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A567" s="10" t="s">
         <v>1</v>
       </c>
@@ -43881,37 +43953,37 @@
         <v>0.52300000000000013</v>
       </c>
     </row>
-    <row r="568" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L568" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="570" spans="1:19" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="570" spans="1:19" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A570" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B570" s="18"/>
       <c r="C570" s="18"/>
     </row>
-    <row r="571" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="572" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="573" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="574" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="575" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="576" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="577" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="578" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="579" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="580" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="581" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="582" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="583" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="584" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="585" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="586" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="587" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="588" spans="1:20" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="572" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="573" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="574" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="575" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="576" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="577" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="578" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="579" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="580" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="581" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="582" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="583" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="584" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="585" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="586" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="587" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="588" spans="1:20" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A588" s="8" t="s">
         <v>0</v>
       </c>
@@ -43973,7 +44045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="589" spans="1:20" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:20" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A589" s="10" t="s">
         <v>1</v>
       </c>
@@ -44035,36 +44107,36 @@
         <v>0.1509999999999998</v>
       </c>
     </row>
-    <row r="590" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K590" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="592" spans="1:20" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="592" spans="1:20" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A592" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B592" s="18"/>
       <c r="C592" s="18"/>
     </row>
-    <row r="593" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="594" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="595" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="596" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="597" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="598" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="599" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="600" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="601" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="602" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="603" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="604" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="605" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="606" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="607" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="608" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="609" spans="1:21" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="593" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="594" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="595" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="596" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="597" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="598" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="599" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="600" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="601" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="602" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="603" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="604" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="605" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="606" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="607" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="608" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="609" spans="1:21" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A609" s="8" t="s">
         <v>0</v>
       </c>
@@ -44129,7 +44201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="610" spans="1:21" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:21" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A610" s="10" t="s">
         <v>1</v>
       </c>
@@ -44194,38 +44266,38 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M611" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="613" spans="1:21" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A613" s="19" t="s">
+    <row r="612" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="613" spans="1:21" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A613" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B613" s="19"/>
-      <c r="C613" s="19"/>
+      <c r="B613" s="20"/>
+      <c r="C613" s="20"/>
     </row>
-    <row r="614" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="615" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="616" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="617" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="618" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="619" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="620" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="621" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="622" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="623" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="624" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="625" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="626" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="627" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="628" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="629" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="630" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="631" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="632" spans="1:57" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="615" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="616" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="617" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="618" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="619" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="620" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="621" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="622" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="623" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="624" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="625" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="626" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="627" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="628" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="629" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="630" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="631" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="632" spans="1:57" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A632" s="8" t="s">
         <v>0</v>
       </c>
@@ -44293,7 +44365,7 @@
         <v>1.1649999999999991</v>
       </c>
     </row>
-    <row r="633" spans="1:57" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:57" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A633" s="10" t="s">
         <v>1</v>
       </c>
@@ -44361,7 +44433,7 @@
         <v>0.61499999999999932</v>
       </c>
     </row>
-    <row r="634" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K634" s="5" t="s">
         <v>2</v>
       </c>
@@ -44372,7 +44444,7 @@
         <v>7.4999999999999289E-2</v>
       </c>
     </row>
-    <row r="635" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD635" s="5">
         <v>13</v>
       </c>
@@ -44380,7 +44452,7 @@
         <v>2.1249999999999991</v>
       </c>
     </row>
-    <row r="636" spans="1:57" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:57" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A636" s="18" t="s">
         <v>69</v>
       </c>
@@ -44393,7 +44465,7 @@
         <v>2.1449999999999996</v>
       </c>
     </row>
-    <row r="637" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD637" s="5">
         <v>16</v>
       </c>
@@ -44401,7 +44473,7 @@
         <v>1.4849999999999994</v>
       </c>
     </row>
-    <row r="638" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD638" s="5">
         <v>20</v>
       </c>
@@ -44409,7 +44481,7 @@
         <v>0.16199999999999926</v>
       </c>
     </row>
-    <row r="639" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD639" s="5">
         <v>23</v>
       </c>
@@ -44417,7 +44489,7 @@
         <v>-2.8000000000000691E-2</v>
       </c>
     </row>
-    <row r="640" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD640" s="5">
         <v>27</v>
       </c>
@@ -44425,14 +44497,14 @@
         <v>-0.15800000000000081</v>
       </c>
     </row>
-    <row r="641" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="642" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="643" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="644" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="645" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="646" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="647" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="648" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="642" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="643" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="644" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="645" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="646" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="647" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="648" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD648" s="5">
         <v>31</v>
       </c>
@@ -44440,7 +44512,7 @@
         <v>-0.47800000000000065</v>
       </c>
     </row>
-    <row r="649" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD649" s="5">
         <v>35</v>
       </c>
@@ -44448,7 +44520,7 @@
         <v>-0.5680000000000005</v>
       </c>
     </row>
-    <row r="650" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD650" s="5">
         <v>39</v>
       </c>
@@ -44456,7 +44528,7 @@
         <v>-0.68800000000000061</v>
       </c>
     </row>
-    <row r="651" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD651" s="5">
         <v>42</v>
       </c>
@@ -44464,7 +44536,7 @@
         <v>-0.70800000000000063</v>
       </c>
     </row>
-    <row r="652" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD652" s="5">
         <v>46</v>
       </c>
@@ -44472,7 +44544,7 @@
         <v>-0.57800000000000074</v>
       </c>
     </row>
-    <row r="653" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD653" s="5">
         <v>49</v>
       </c>
@@ -44480,7 +44552,7 @@
         <v>-0.37800000000000056</v>
       </c>
     </row>
-    <row r="654" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD654" s="5">
         <v>52</v>
       </c>
@@ -44488,7 +44560,7 @@
         <v>0.24199999999999933</v>
       </c>
     </row>
-    <row r="655" spans="1:57" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:57" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A655" s="8" t="s">
         <v>0</v>
       </c>
@@ -44556,7 +44628,7 @@
         <v>0.8419999999999993</v>
       </c>
     </row>
-    <row r="656" spans="1:57" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:57" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A656" s="10" t="s">
         <v>1</v>
       </c>
@@ -44624,7 +44696,7 @@
         <v>1.7149999999999994</v>
       </c>
     </row>
-    <row r="657" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L657" s="5" t="s">
         <v>2</v>
       </c>
@@ -44635,7 +44707,7 @@
         <v>2.5249999999999995</v>
       </c>
     </row>
-    <row r="658" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD658" s="5">
         <v>65</v>
       </c>
@@ -44643,30 +44715,30 @@
         <v>2.5349999999999993</v>
       </c>
     </row>
-    <row r="659" spans="1:57" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:57" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A659" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="660" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="661" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="662" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="663" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="664" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="665" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="666" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="667" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="668" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="669" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="670" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="671" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="672" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="673" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="674" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="675" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="676" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="677" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="678" spans="1:28" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="661" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="662" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="663" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="664" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="665" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="666" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="667" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="668" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="669" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="670" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="671" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="672" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="673" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="674" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="675" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="676" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="677" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="678" spans="1:28" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A678" s="8" t="s">
         <v>0</v>
       </c>
@@ -44730,7 +44802,7 @@
       <c r="W678" s="9"/>
       <c r="AB678" s="9"/>
     </row>
-    <row r="679" spans="1:28" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:28" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A679" s="10" t="s">
         <v>1</v>
       </c>
@@ -44794,39 +44866,39 @@
       <c r="W679" s="11"/>
       <c r="AB679" s="11"/>
     </row>
-    <row r="680" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K680" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="682" spans="1:28" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="682" spans="1:28" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A682" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B682" s="18"/>
       <c r="C682" s="18"/>
     </row>
-    <row r="683" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="684" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="685" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="686" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="687" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="688" spans="1:28" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="689" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="690" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="691" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="692" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="693" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="694" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="695" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="696" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="697" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="698" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="699" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="700" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="701" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="702" spans="1:21" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="684" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="685" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="686" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="687" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="688" spans="1:28" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="689" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="690" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="691" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="692" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="693" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="694" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="695" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="696" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="697" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="698" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="699" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="700" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="701" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="702" spans="1:21" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A702" s="8" t="s">
         <v>0</v>
       </c>
@@ -44884,7 +44956,7 @@
       <c r="S702" s="9"/>
       <c r="U702" s="9"/>
     </row>
-    <row r="703" spans="1:21" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:21" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A703" s="10" t="s">
         <v>1</v>
       </c>
@@ -44942,38 +45014,38 @@
       <c r="S703" s="11"/>
       <c r="U703" s="11"/>
     </row>
-    <row r="704" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J704" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A705" s="19" t="s">
+    <row r="705" spans="1:3" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A705" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B705" s="19"/>
-      <c r="C705" s="19"/>
+      <c r="B705" s="35"/>
+      <c r="C705" s="35"/>
     </row>
-    <row r="706" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="707" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="708" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="709" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="710" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="711" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="712" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="713" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="714" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="715" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="716" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="717" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="718" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="719" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="720" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="721" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="722" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="723" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="724" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="725" spans="1:27" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="707" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="708" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="709" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="710" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="711" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="712" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="713" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="714" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="715" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="716" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="717" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="718" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="719" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="720" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="721" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="722" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="723" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="724" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="725" spans="1:27" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A725" s="8" t="s">
         <v>0</v>
       </c>
@@ -45044,7 +45116,7 @@
       <c r="Y725" s="9"/>
       <c r="AA725" s="9"/>
     </row>
-    <row r="726" spans="1:27" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:27" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A726" s="10" t="s">
         <v>1</v>
       </c>
@@ -45115,55 +45187,55 @@
       <c r="Y726" s="11"/>
       <c r="AA726" s="11"/>
     </row>
-    <row r="727" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M727" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="729" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="730" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="731" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="729" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="730" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="731" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D731" s="6"/>
-      <c r="F731" s="20" t="s">
+      <c r="F731" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G731" s="20"/>
-      <c r="H731" s="20"/>
-      <c r="I731" s="20"/>
-      <c r="J731" s="20"/>
-      <c r="K731" s="20"/>
-      <c r="L731" s="20"/>
-      <c r="M731" s="20"/>
-      <c r="N731" s="20"/>
-      <c r="O731" s="20"/>
-      <c r="P731" s="20"/>
-      <c r="Q731" s="20"/>
+      <c r="G731" s="28"/>
+      <c r="H731" s="28"/>
+      <c r="I731" s="28"/>
+      <c r="J731" s="28"/>
+      <c r="K731" s="28"/>
+      <c r="L731" s="28"/>
+      <c r="M731" s="28"/>
+      <c r="N731" s="28"/>
+      <c r="O731" s="28"/>
+      <c r="P731" s="28"/>
+      <c r="Q731" s="28"/>
     </row>
-    <row r="732" spans="1:27" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" spans="1:27" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:27" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" spans="1:27" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A733" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B733" s="18"/>
       <c r="C733" s="18"/>
     </row>
-    <row r="734" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="735" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="736" spans="1:27" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="737" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="738" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="739" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="740" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="741" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="742" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="743" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="744" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="745" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="746" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="747" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="748" spans="1:22" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" spans="1:22" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="735" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="736" spans="1:27" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="737" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="738" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="739" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="740" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="741" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="742" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="743" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="744" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="745" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="746" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="747" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="748" spans="1:22" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" spans="1:22" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A749" s="8" t="s">
         <v>0</v>
       </c>
@@ -45231,7 +45303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="750" spans="1:22" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:22" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A750" s="10" t="s">
         <v>1</v>
       </c>
@@ -45299,37 +45371,37 @@
         <v>0.29800000000000004</v>
       </c>
     </row>
-    <row r="751" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M751" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="753" spans="1:3" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="753" spans="1:3" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A753" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B753" s="18"/>
       <c r="C753" s="18"/>
     </row>
-    <row r="754" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="755" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="756" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="757" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="758" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="759" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="760" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="761" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="762" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="763" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="764" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="765" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="766" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="767" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="768" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="769" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="770" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="771" spans="1:22" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="755" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="756" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="757" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="758" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="759" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="760" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="761" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="762" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="763" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="764" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="765" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="766" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="767" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="768" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="769" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="770" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="771" spans="1:22" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A771" s="8" t="s">
         <v>0</v>
       </c>
@@ -45397,7 +45469,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="772" spans="1:22" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:22" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A772" s="10" t="s">
         <v>1</v>
       </c>
@@ -45465,37 +45537,37 @@
         <v>0.48899999999999988</v>
       </c>
     </row>
-    <row r="773" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L773" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="774" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="775" spans="1:22" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="775" spans="1:22" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A775" s="18" t="s">
         <v>84</v>
       </c>
       <c r="B775" s="18"/>
       <c r="C775" s="18"/>
     </row>
-    <row r="776" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="777" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="778" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="779" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="780" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="781" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="782" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="783" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="784" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="785" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="786" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="787" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="788" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="789" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="790" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="791" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="792" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="793" spans="1:22" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="777" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="778" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="779" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="780" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="781" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="782" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="783" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="784" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="785" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="786" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="787" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="788" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="789" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="790" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="791" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="792" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="793" spans="1:22" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A793" s="8" t="s">
         <v>0</v>
       </c>
@@ -45563,7 +45635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:22" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:22" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A794" s="10" t="s">
         <v>1</v>
       </c>
@@ -45631,36 +45703,36 @@
         <v>0.29900000000000038</v>
       </c>
     </row>
-    <row r="795" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L795" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="796" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="797" spans="1:22" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="797" spans="1:22" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A797" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B797" s="18"/>
       <c r="C797" s="18"/>
     </row>
-    <row r="798" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="799" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="800" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="801" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="802" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="803" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="804" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="805" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="806" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="807" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="808" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="809" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="810" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="811" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="812" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="813" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="814" spans="1:22" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="799" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="800" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="801" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="802" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="803" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="804" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="805" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="806" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="807" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="808" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="809" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="810" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="811" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="812" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="813" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="814" spans="1:22" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A814" s="8" t="s">
         <v>0</v>
       </c>
@@ -45728,7 +45800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="815" spans="1:22" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:22" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A815" s="10" t="s">
         <v>1</v>
       </c>
@@ -45796,38 +45868,38 @@
         <v>0.49699999999999989</v>
       </c>
     </row>
-    <row r="816" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L816" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="817" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="818" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A818" s="19" t="s">
+    <row r="817" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="818" spans="1:3" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A818" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B818" s="19"/>
-      <c r="C818" s="19"/>
+      <c r="B818" s="20"/>
+      <c r="C818" s="20"/>
     </row>
-    <row r="819" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="820" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="821" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="822" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="823" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="824" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="825" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="826" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="827" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="828" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="829" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="830" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="831" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="832" spans="1:3" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="833" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="834" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="835" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="836" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="837" spans="1:57" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="820" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="821" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="822" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="823" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="824" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="825" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="826" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="827" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="828" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="829" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="830" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="831" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="832" spans="1:3" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="833" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="834" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="835" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="836" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="837" spans="1:57" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A837" s="8" t="s">
         <v>0</v>
       </c>
@@ -45895,7 +45967,7 @@
         <v>1.1649999999999991</v>
       </c>
     </row>
-    <row r="838" spans="1:57" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:57" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A838" s="10" t="s">
         <v>1</v>
       </c>
@@ -45963,7 +46035,7 @@
         <v>0.61499999999999932</v>
       </c>
     </row>
-    <row r="839" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K839" s="5" t="s">
         <v>2</v>
       </c>
@@ -45974,7 +46046,7 @@
         <v>7.4999999999999289E-2</v>
       </c>
     </row>
-    <row r="840" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD840" s="5">
         <v>13</v>
       </c>
@@ -45982,7 +46054,7 @@
         <v>2.1249999999999991</v>
       </c>
     </row>
-    <row r="841" spans="1:57" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:57" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A841" s="18" t="s">
         <v>87</v>
       </c>
@@ -45995,7 +46067,7 @@
         <v>2.1449999999999996</v>
       </c>
     </row>
-    <row r="842" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD842" s="5">
         <v>16</v>
       </c>
@@ -46003,7 +46075,7 @@
         <v>1.4849999999999994</v>
       </c>
     </row>
-    <row r="843" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD843" s="5">
         <v>20</v>
       </c>
@@ -46011,7 +46083,7 @@
         <v>0.16199999999999926</v>
       </c>
     </row>
-    <row r="844" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD844" s="5">
         <v>23</v>
       </c>
@@ -46019,7 +46091,7 @@
         <v>-2.8000000000000691E-2</v>
       </c>
     </row>
-    <row r="845" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD845" s="5">
         <v>27</v>
       </c>
@@ -46027,14 +46099,14 @@
         <v>-0.15800000000000081</v>
       </c>
     </row>
-    <row r="846" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="847" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="848" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="849" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="850" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="851" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="852" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="853" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="847" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="848" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="849" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="850" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="851" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="852" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="853" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD853" s="5">
         <v>31</v>
       </c>
@@ -46042,7 +46114,7 @@
         <v>-0.47800000000000065</v>
       </c>
     </row>
-    <row r="854" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD854" s="5">
         <v>35</v>
       </c>
@@ -46050,7 +46122,7 @@
         <v>-0.5680000000000005</v>
       </c>
     </row>
-    <row r="855" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD855" s="5">
         <v>39</v>
       </c>
@@ -46058,7 +46130,7 @@
         <v>-0.68800000000000061</v>
       </c>
     </row>
-    <row r="856" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD856" s="5">
         <v>42</v>
       </c>
@@ -46066,7 +46138,7 @@
         <v>-0.70800000000000063</v>
       </c>
     </row>
-    <row r="857" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD857" s="5">
         <v>46</v>
       </c>
@@ -46074,7 +46146,7 @@
         <v>-0.57800000000000074</v>
       </c>
     </row>
-    <row r="858" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD858" s="5">
         <v>49</v>
       </c>
@@ -46082,7 +46154,7 @@
         <v>-0.37800000000000056</v>
       </c>
     </row>
-    <row r="859" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD859" s="5">
         <v>52</v>
       </c>
@@ -46090,7 +46162,7 @@
         <v>0.24199999999999933</v>
       </c>
     </row>
-    <row r="860" spans="1:57" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:57" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A860" s="8" t="s">
         <v>0</v>
       </c>
@@ -46158,7 +46230,7 @@
         <v>0.8419999999999993</v>
       </c>
     </row>
-    <row r="861" spans="1:57" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:57" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A861" s="10" t="s">
         <v>1</v>
       </c>
@@ -46226,7 +46298,7 @@
         <v>1.7149999999999994</v>
       </c>
     </row>
-    <row r="862" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L862" s="5" t="s">
         <v>2</v>
       </c>
@@ -46237,7 +46309,7 @@
         <v>2.5249999999999995</v>
       </c>
     </row>
-    <row r="863" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD863" s="5">
         <v>65</v>
       </c>
@@ -46245,32 +46317,32 @@
         <v>2.5349999999999993</v>
       </c>
     </row>
-    <row r="864" spans="1:57" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:57" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A864" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B864" s="18"/>
       <c r="C864" s="18"/>
     </row>
-    <row r="865" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="866" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="867" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="868" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="869" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="870" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="871" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="872" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="873" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="874" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="875" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="876" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="877" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="878" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="879" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="880" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="881" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="882" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="883" spans="1:20" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="865" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="866" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="867" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="868" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="869" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="870" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="871" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="872" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="873" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="874" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="875" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="876" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="877" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="878" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="879" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="880" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="881" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="882" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="883" spans="1:20" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A883" s="8" t="s">
         <v>0</v>
       </c>
@@ -46332,7 +46404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="884" spans="1:20" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:20" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A884" s="10" t="s">
         <v>1</v>
       </c>
@@ -46394,39 +46466,39 @@
         <v>1.0230000000000006</v>
       </c>
     </row>
-    <row r="885" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L885" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="886" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="887" spans="1:20" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="887" spans="1:20" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A887" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B887" s="18"/>
       <c r="C887" s="18"/>
     </row>
-    <row r="888" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="889" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="890" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="891" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="892" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="893" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="894" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="895" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="896" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="897" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="898" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="899" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="900" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="901" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="902" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="903" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="904" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="905" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="906" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="907" spans="1:22" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="889" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="890" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="891" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="892" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="893" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="894" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="895" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="896" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="897" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="898" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="899" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="900" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="901" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="902" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="903" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="904" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="905" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="906" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="907" spans="1:22" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A907" s="8" t="s">
         <v>0</v>
       </c>
@@ -46494,7 +46566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="908" spans="1:22" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:22" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A908" s="10" t="s">
         <v>1</v>
       </c>
@@ -46562,38 +46634,38 @@
         <v>-0.39900000000000002</v>
       </c>
     </row>
-    <row r="909" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="M909" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="910" spans="1:22" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A910" s="19" t="s">
+    <row r="910" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A910" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B910" s="19"/>
-      <c r="C910" s="19"/>
+      <c r="B910" s="20"/>
+      <c r="C910" s="20"/>
     </row>
-    <row r="911" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="912" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="913" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="914" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="915" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="916" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="917" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="918" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="919" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="920" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="921" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="922" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="923" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="924" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="925" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="926" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="927" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="928" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="929" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="930" spans="1:22" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="912" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="913" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="914" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="915" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="916" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="917" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="918" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="919" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="920" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="921" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="922" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="923" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="924" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="925" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="926" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="927" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="928" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="929" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="930" spans="1:22" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A930" s="8" t="s">
         <v>0</v>
       </c>
@@ -46661,7 +46733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="931" spans="1:22" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:22" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A931" s="10" t="s">
         <v>1</v>
       </c>
@@ -46729,36 +46801,36 @@
         <v>0.19299999999999962</v>
       </c>
     </row>
-    <row r="932" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K932" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="933" spans="1:22" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A933" s="19" t="s">
+    <row r="933" spans="1:22" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A933" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B933" s="19"/>
-      <c r="C933" s="19"/>
+      <c r="B933" s="20"/>
+      <c r="C933" s="20"/>
     </row>
-    <row r="934" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="935" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="936" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="937" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="938" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="939" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="940" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="941" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="942" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="943" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="944" spans="1:22" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="945" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="946" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="947" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="948" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="949" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="950" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="951" spans="1:18" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="935" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="936" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="937" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="938" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="939" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="940" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="941" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="942" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="943" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="944" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="945" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="946" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="947" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="948" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="949" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="950" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="951" spans="1:18" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A951" s="8" t="s">
         <v>0</v>
       </c>
@@ -46814,7 +46886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="952" spans="1:18" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:18" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A952" s="10" t="s">
         <v>1</v>
       </c>
@@ -46870,51 +46942,51 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="953" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J953" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="956" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="957" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="957" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D957" s="6"/>
-      <c r="F957" s="20" t="s">
+      <c r="F957" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G957" s="20"/>
-      <c r="H957" s="20"/>
-      <c r="I957" s="20"/>
-      <c r="J957" s="20"/>
-      <c r="K957" s="20"/>
-      <c r="L957" s="20"/>
-      <c r="M957" s="20"/>
-      <c r="N957" s="20"/>
-      <c r="O957" s="20"/>
-      <c r="P957" s="20"/>
-      <c r="Q957" s="20"/>
+      <c r="G957" s="28"/>
+      <c r="H957" s="28"/>
+      <c r="I957" s="28"/>
+      <c r="J957" s="28"/>
+      <c r="K957" s="28"/>
+      <c r="L957" s="28"/>
+      <c r="M957" s="28"/>
+      <c r="N957" s="28"/>
+      <c r="O957" s="28"/>
+      <c r="P957" s="28"/>
+      <c r="Q957" s="28"/>
     </row>
-    <row r="958" spans="1:18" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" spans="1:18" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:18" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" spans="1:18" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A959" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="960" spans="1:18" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="961" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="962" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="963" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="964" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="965" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="966" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="967" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="968" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="969" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="970" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="971" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="972" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="973" spans="1:19" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="974" spans="1:19" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" spans="1:19" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:18" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="961" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="962" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="963" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="964" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="965" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="966" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="967" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="968" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="969" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="970" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="971" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="972" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="973" spans="1:19" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="974" spans="1:19" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" spans="1:19" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A975" s="8" t="s">
         <v>0</v>
       </c>
@@ -46967,7 +47039,7 @@
       <c r="R975" s="9"/>
       <c r="S975" s="9"/>
     </row>
-    <row r="976" spans="1:19" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:19" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A976" s="10" t="s">
         <v>1</v>
       </c>
@@ -47020,37 +47092,37 @@
       <c r="R976" s="11"/>
       <c r="S976" s="11"/>
     </row>
-    <row r="977" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I977" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="978" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="979" spans="1:9" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="979" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A979" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B979" s="18"/>
       <c r="C979" s="18"/>
     </row>
-    <row r="980" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="981" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="982" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="983" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="984" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="985" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="986" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="987" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="988" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="989" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="990" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="991" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="992" spans="1:9" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="993" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="994" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="995" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="996" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="997" spans="1:20" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="981" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="982" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="983" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="984" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="985" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="986" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="987" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="988" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="989" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="990" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="991" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="992" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="993" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="994" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="995" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="996" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="997" spans="1:20" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A997" s="8" t="s">
         <v>0</v>
       </c>
@@ -47112,7 +47184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="998" spans="1:20" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:20" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A998" s="10" t="s">
         <v>1</v>
       </c>
@@ -47174,37 +47246,37 @@
         <v>-0.4700000000000002</v>
       </c>
     </row>
-    <row r="999" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K999" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="1000" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1001" spans="1:20" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1001" spans="1:20" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1001" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B1001" s="18"/>
       <c r="C1001" s="18"/>
     </row>
-    <row r="1002" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1003" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1004" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1005" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1006" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1007" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1008" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1009" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1010" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1011" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1012" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1013" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1014" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1015" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1016" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1017" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1018" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1019" spans="1:20" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1002" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1003" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1004" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1005" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1006" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1007" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1008" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1009" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1010" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1011" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1012" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1013" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1014" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1015" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1016" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1017" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1018" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1019" spans="1:20" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1019" s="8" t="s">
         <v>0</v>
       </c>
@@ -47266,7 +47338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1020" spans="1:20" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1020" spans="1:20" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1020" s="10" t="s">
         <v>1</v>
       </c>
@@ -47328,36 +47400,36 @@
         <v>0.1509999999999998</v>
       </c>
     </row>
-    <row r="1021" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K1021" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="1022" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1023" spans="1:20" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1022" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1023" spans="1:20" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1023" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B1023" s="18"/>
       <c r="C1023" s="18"/>
     </row>
-    <row r="1024" spans="1:20" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1025" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1026" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1027" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1028" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1029" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1030" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1031" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1032" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1033" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1034" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1035" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1036" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1037" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1038" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1039" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1040" spans="1:21" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1024" spans="1:20" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1025" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1026" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1027" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1028" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1029" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1030" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1031" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1032" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1033" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1034" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1035" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1036" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1037" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1038" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1039" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1040" spans="1:21" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1040" s="8" t="s">
         <v>0</v>
       </c>
@@ -47422,7 +47494,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="1041" spans="1:21" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1041" spans="1:21" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1041" s="10" t="s">
         <v>1</v>
       </c>
@@ -47487,38 +47559,38 @@
         <v>1.0410000000000004</v>
       </c>
     </row>
-    <row r="1042" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L1042" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="1043" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1044" spans="1:21" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1044" s="19" t="s">
+    <row r="1043" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1044" spans="1:21" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1044" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B1044" s="19"/>
-      <c r="C1044" s="19"/>
+      <c r="B1044" s="20"/>
+      <c r="C1044" s="20"/>
     </row>
-    <row r="1045" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1046" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1047" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1048" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1049" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1050" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1051" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1052" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1053" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1054" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1055" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1056" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1057" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1058" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1059" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1060" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1061" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1062" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1063" spans="1:57" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1045" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1046" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1047" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1048" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1049" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1050" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1051" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1052" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1053" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1054" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1055" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1056" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1057" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1058" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1059" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1060" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1061" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1062" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1063" spans="1:57" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1063" s="8" t="s">
         <v>0</v>
       </c>
@@ -47586,7 +47658,7 @@
         <v>1.1649999999999991</v>
       </c>
     </row>
-    <row r="1064" spans="1:57" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1064" spans="1:57" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1064" s="10" t="s">
         <v>1</v>
       </c>
@@ -47654,7 +47726,7 @@
         <v>0.61499999999999932</v>
       </c>
     </row>
-    <row r="1065" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L1065" s="5" t="s">
         <v>2</v>
       </c>
@@ -47665,7 +47737,7 @@
         <v>7.4999999999999289E-2</v>
       </c>
     </row>
-    <row r="1066" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1066" s="5">
         <v>13</v>
       </c>
@@ -47673,7 +47745,7 @@
         <v>2.1249999999999991</v>
       </c>
     </row>
-    <row r="1067" spans="1:57" s="5" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1067" spans="1:57" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1067" s="18" t="s">
         <v>107</v>
       </c>
@@ -47686,7 +47758,7 @@
         <v>2.1449999999999996</v>
       </c>
     </row>
-    <row r="1068" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1068" s="5">
         <v>16</v>
       </c>
@@ -47694,7 +47766,7 @@
         <v>1.4849999999999994</v>
       </c>
     </row>
-    <row r="1069" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1069" s="5">
         <v>20</v>
       </c>
@@ -47702,7 +47774,7 @@
         <v>0.16199999999999926</v>
       </c>
     </row>
-    <row r="1070" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1070" s="5">
         <v>23</v>
       </c>
@@ -47710,7 +47782,7 @@
         <v>-2.8000000000000691E-2</v>
       </c>
     </row>
-    <row r="1071" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1071" s="5">
         <v>27</v>
       </c>
@@ -47718,14 +47790,14 @@
         <v>-0.15800000000000081</v>
       </c>
     </row>
-    <row r="1072" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1073" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1074" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1075" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1076" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1077" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1078" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="1079" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1073" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1074" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1075" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1076" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1077" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1078" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1079" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1079" s="5">
         <v>31</v>
       </c>
@@ -47733,7 +47805,7 @@
         <v>-0.47800000000000065</v>
       </c>
     </row>
-    <row r="1080" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1080" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1080" s="5">
         <v>35</v>
       </c>
@@ -47741,7 +47813,7 @@
         <v>-0.5680000000000005</v>
       </c>
     </row>
-    <row r="1081" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1081" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1081" s="5">
         <v>39</v>
       </c>
@@ -47749,7 +47821,7 @@
         <v>-0.68800000000000061</v>
       </c>
     </row>
-    <row r="1082" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1082" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1082" s="5">
         <v>42</v>
       </c>
@@ -47757,7 +47829,7 @@
         <v>-0.70800000000000063</v>
       </c>
     </row>
-    <row r="1083" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1083" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1083" s="5">
         <v>46</v>
       </c>
@@ -47765,7 +47837,7 @@
         <v>-0.57800000000000074</v>
       </c>
     </row>
-    <row r="1084" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1084" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1084" s="5">
         <v>49</v>
       </c>
@@ -47773,7 +47845,7 @@
         <v>-0.37800000000000056</v>
       </c>
     </row>
-    <row r="1085" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1085" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1085" s="5">
         <v>52</v>
       </c>
@@ -47781,7 +47853,7 @@
         <v>0.24199999999999933</v>
       </c>
     </row>
-    <row r="1086" spans="1:57" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1086" spans="1:57" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1086" s="8" t="s">
         <v>0</v>
       </c>
@@ -47847,7 +47919,7 @@
         <v>0.8419999999999993</v>
       </c>
     </row>
-    <row r="1087" spans="1:57" s="10" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1087" spans="1:57" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1087" s="10" t="s">
         <v>1</v>
       </c>
@@ -47913,7 +47985,7 @@
         <v>1.7149999999999994</v>
       </c>
     </row>
-    <row r="1088" spans="1:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1088" spans="1:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L1088" s="5" t="s">
         <v>2</v>
       </c>
@@ -47924,7 +47996,7 @@
         <v>2.5249999999999995</v>
       </c>
     </row>
-    <row r="1089" spans="56:57" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1089" spans="56:57" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="BD1089" s="5">
         <v>65</v>
       </c>
@@ -47934,44 +48006,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A500:C500"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A360:C360"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A682:C682"/>
-    <mergeCell ref="A592:C592"/>
-    <mergeCell ref="A613:C613"/>
-    <mergeCell ref="A636:C636"/>
-    <mergeCell ref="F526:Q526"/>
-    <mergeCell ref="A548:C548"/>
-    <mergeCell ref="A570:C570"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A137:U137"/>
-    <mergeCell ref="F139:Q139"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="F227:Q227"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A406:C406"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A450:C450"/>
-    <mergeCell ref="A475:B475"/>
-    <mergeCell ref="A705:C705"/>
-    <mergeCell ref="F731:Q731"/>
-    <mergeCell ref="A733:C733"/>
-    <mergeCell ref="A753:C753"/>
-    <mergeCell ref="A775:C775"/>
+    <mergeCell ref="A1023:C1023"/>
+    <mergeCell ref="A1044:C1044"/>
+    <mergeCell ref="A1067:C1067"/>
+    <mergeCell ref="A910:C910"/>
+    <mergeCell ref="A933:C933"/>
     <mergeCell ref="F957:Q957"/>
     <mergeCell ref="A979:C979"/>
     <mergeCell ref="A1001:C1001"/>
@@ -47980,11 +48019,44 @@
     <mergeCell ref="A841:C841"/>
     <mergeCell ref="A864:C864"/>
     <mergeCell ref="A887:C887"/>
-    <mergeCell ref="A1023:C1023"/>
-    <mergeCell ref="A1044:C1044"/>
-    <mergeCell ref="A1067:C1067"/>
-    <mergeCell ref="A910:C910"/>
-    <mergeCell ref="A933:C933"/>
+    <mergeCell ref="A705:C705"/>
+    <mergeCell ref="F731:Q731"/>
+    <mergeCell ref="A733:C733"/>
+    <mergeCell ref="A753:C753"/>
+    <mergeCell ref="A775:C775"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="F227:Q227"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A137:U137"/>
+    <mergeCell ref="F139:Q139"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A682:C682"/>
+    <mergeCell ref="A592:C592"/>
+    <mergeCell ref="A613:C613"/>
+    <mergeCell ref="A636:C636"/>
+    <mergeCell ref="F526:Q526"/>
+    <mergeCell ref="A548:C548"/>
+    <mergeCell ref="A570:C570"/>
+    <mergeCell ref="A500:C500"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A360:C360"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A406:C406"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="A475:B475"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A69:C69"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -47998,7 +48070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
